--- a/biology/Mycologie/Rubroboletus_lupinus/Rubroboletus_lupinus.xlsx
+++ b/biology/Mycologie/Rubroboletus_lupinus/Rubroboletus_lupinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet des loups
 Rubroboletus lupinus, le Bolet des loups, anciennement Boletus dupainii, est une espèce toxique de champignons (Fungi) basidiomycètes du genre Rubroboletus dans la famille des Boletaceae. Il est caractérisé par son chapeau rosâtre, ses pores rouges et son pied lisse sans ou presque sans réseau.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus lupinus (Fr.) Costanzo, Gelardi, Simonini &amp; Vizzini[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lupinus Fr.[1].
-Synonymes
-Rubroboletus lupinus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rubroboletus lupinus (Fr.) Costanzo, Gelardi, Simonini &amp; Vizzini. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lupinus Fr..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rubroboletus lupinus a pour synonymes :
 Boletus lupinus (Fr.) Costanzo, Gelardi, Simonini &amp; Vizzini
 Boletus lupinus Fr.
 Boletus satanas var. lupinus (Fr.) Cooke &amp; Quél.
@@ -525,42 +574,7 @@
 Suillellus lupinus (Fr.) Blanco-Dios
 Suillus lupinus (Fr.) Richon &amp; Roze
 Tubiporus lupinus (Fr.) P.Karst.
-Tubiporus lupinus (Fr.) Ricken
-Phylogénie
-Initialement décrit par Elias Magnus Fries en 1838 comme une espèce de Boletus, il a été transféré vers le genre Rubroboletus en 2015, un genre circonscrit pour héberger d'autres espèces proches de bolets bleuissants à chair de couleur rougeâtre formant un clade distinct[2].
-Des études moléculaires ont révélé une variation génétique considérable parmi les populations européennes de R. lupinus, le plaçant dans un clade sœur de Rubroboletus dupainii[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rubroboletus_lupinus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rubroboletus_lupinus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique est dérivée du mot latin lupus, qui signifie « loup ».
-</t>
+Tubiporus lupinus (Fr.) Ricken</t>
         </is>
       </c>
     </row>
@@ -585,12 +599,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Noms vulgaires et vernaculaires</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet de loup, Bolet des loups[4],[5][6].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement décrit par Elias Magnus Fries en 1838 comme une espèce de Boletus, il a été transféré vers le genre Rubroboletus en 2015, un genre circonscrit pour héberger d'autres espèces proches de bolets bleuissants à chair de couleur rougeâtre formant un clade distinct.
+Des études moléculaires ont révélé une variation génétique considérable parmi les populations européennes de R. lupinus, le plaçant dans un clade sœur de Rubroboletus dupainii.
 </t>
         </is>
       </c>
@@ -616,20 +637,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique est dérivée du mot latin lupus, qui signifie « loup ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bolet de loup, Bolet des loups,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques morphologiques Rubroboletus lupinus, le Bolet des loups, sont les suivantes :
-Son chapeau mesure 5 à 15 cm[6], il est rose, mastic rosâtre, rouge-rose, parfois totalement jaune[7].
-L'hyménophore présente des pores jaunes, orangés ou rouge vif[6]. 
-Son stipe mesure jusqu'à 12 x 5 cm[6]. Il est jaune, parfois orangé ou taché de brun rougeâtre, souvent sans réseau ou alors parfois très court au sommet[7], ponctué ailleurs[6].
-La chair est jaune, plus ou moins bleuissante. Elle a une odeur de scléroderme[7], sa saveur est douce ou amère/piquante[6]
-Réactions chimiques
-Réaction bleue à l'iode sur le chapeau[6].
-Caractéristiques microscopiques
-Ses spores mesurent 12- 15 x 5-6 μm[7].
+Son chapeau mesure 5 à 15 cm, il est rose, mastic rosâtre, rouge-rose, parfois totalement jaune.
+L'hyménophore présente des pores jaunes, orangés ou rouge vif. 
+Son stipe mesure jusqu'à 12 x 5 cm. Il est jaune, parfois orangé ou taché de brun rougeâtre, souvent sans réseau ou alors parfois très court au sommet, ponctué ailleurs.
+La chair est jaune, plus ou moins bleuissante. Elle a une odeur de scléroderme, sa saveur est douce ou amère/piquante
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réaction bleue à l'iode sur le chapeau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubroboletus_lupinus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12- 15 x 5-6 μm.
 </t>
         </is>
       </c>
